--- a/Agendas/202009 WGM FHIR Agenda.xlsx
+++ b/Agendas/202009 WGM FHIR Agenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lloyd\Documents\SVN\fhir documents\Agendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC1F8E0-90FA-4F98-935E-A0370B090C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72066CE6-28A9-4F8E-9CE5-900F432924B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5663" yWindow="4327" windowWidth="19605" windowHeight="15083" xr2:uid="{A5253094-C67D-48D9-B98D-81A6297703CF}"/>
+    <workbookView xWindow="5663" yWindow="1118" windowWidth="19605" windowHeight="15082" xr2:uid="{A5253094-C67D-48D9-B98D-81A6297703CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
   <si>
     <t>Mon</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Thur</t>
   </si>
   <si>
-    <t>18:00-20:00</t>
-  </si>
-  <si>
     <t>Vocab</t>
   </si>
   <si>
@@ -78,6 +75,18 @@
   </si>
   <si>
     <t>FHIR-I</t>
+  </si>
+  <si>
+    <t>(Eastern)</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>CG, II</t>
   </si>
 </sst>
 </file>
@@ -93,18 +102,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,10 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,378 +439,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F106C80-0169-4847-A145-09F6E7B0AD7C}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="1">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="1">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="1">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="1">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="1">
+      <c r="B15" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="1">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="1">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B17" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="1">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="1">
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="1">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="1">
-        <v>0.75</v>
-      </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B24" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B25" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
         <v>0.5</v>
       </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="1">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="1">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B29" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="1">
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B30" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="1">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B31" s="1">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B28" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Agendas/202009 WGM FHIR Agenda.xlsx
+++ b/Agendas/202009 WGM FHIR Agenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lloyd\Documents\SVN\fhir documents\Agendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72066CE6-28A9-4F8E-9CE5-900F432924B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E8F7C8-5725-432B-9E4E-A9163CC51721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5663" yWindow="1118" windowWidth="19605" windowHeight="15082" xr2:uid="{A5253094-C67D-48D9-B98D-81A6297703CF}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="11063" windowHeight="11985" xr2:uid="{A5253094-C67D-48D9-B98D-81A6297703CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>Mon</t>
   </si>
@@ -83,17 +83,47 @@
     <t>SD</t>
   </si>
   <si>
+    <t>CG, II</t>
+  </si>
+  <si>
+    <t>BR&amp;R, Pharm</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
     <t>OO</t>
   </si>
   <si>
-    <t>CG, II</t>
+    <t>OO, PE, CBCP</t>
+  </si>
+  <si>
+    <t>CIMI/MnM</t>
+  </si>
+  <si>
+    <t>MnM/Vocab</t>
+  </si>
+  <si>
+    <t>CapabilityStatement rework</t>
+  </si>
+  <si>
+    <t>Future of GraphDefinition</t>
+  </si>
+  <si>
+    <t>review the patterns work</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>R5 Planning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +131,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,9 +164,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,15 +489,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F106C80-0169-4847-A145-09F6E7B0AD7C}">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="12" max="12" width="37.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -467,7 +522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -475,7 +530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -489,7 +544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -506,51 +561,61 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="4">
         <v>0.75</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -566,86 +631,90 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="1">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="B12" s="4">
         <v>0.75</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="1">
+    </row>
+    <row r="17" spans="1:9" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="B17" s="4">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>0.75</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -656,10 +725,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -667,7 +736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -681,12 +750,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <v>0.66666666666666663</v>
       </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -698,38 +770,41 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B24" s="4">
         <v>0.75</v>
       </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -737,37 +812,40 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="1">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="4">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -780,5 +858,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>